--- a/psychopy/contrast_sensitivity_task/stairDefinitions.xlsx
+++ b/psychopy/contrast_sensitivity_task/stairDefinitions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10917"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yxq5055/Box/Project: Sex difference on Motion Perception/codes/contrast_sensitivity_task/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rick/github/gilmore-lab/sex-differences-in-motion-perception/psychopy/contrast_sensitivity_task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8775FAA7-60E0-424A-9E51-8DCEE20C36F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EE6DBAD-700F-C743-9F40-1E9995F620B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18220" yWindow="9360" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="35980" windowHeight="19720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>label</t>
   </si>
@@ -33,18 +33,6 @@
     <t>startVal</t>
   </si>
   <si>
-    <t>low_2</t>
-  </si>
-  <si>
-    <t>high_2</t>
-  </si>
-  <si>
-    <t>low_8</t>
-  </si>
-  <si>
-    <t>high_8</t>
-  </si>
-  <si>
     <t>stepSizes</t>
   </si>
   <si>
@@ -67,6 +55,12 @@
   </si>
   <si>
     <t>startValSd</t>
+  </si>
+  <si>
+    <t>sf_1.2_tf_1</t>
+  </si>
+  <si>
+    <t>sf_12_tf_1</t>
   </si>
 </sst>
 </file>
@@ -463,13 +457,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView tabSelected="1" zoomScale="273" zoomScaleNormal="273" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -479,33 +476,33 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>1E-3</v>
+        <v>0.5</v>
       </c>
       <c r="C2">
         <v>0.05</v>
@@ -520,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -531,10 +528,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C3">
         <v>0.05</v>
@@ -543,76 +540,18 @@
         <v>3.6</v>
       </c>
       <c r="E3">
-        <v>1.2</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1E-3</v>
-      </c>
-      <c r="C4">
-        <v>0.05</v>
-      </c>
-      <c r="D4">
-        <v>3.6</v>
-      </c>
-      <c r="E4">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0.3</v>
-      </c>
-      <c r="C5">
-        <v>0.05</v>
-      </c>
-      <c r="D5">
-        <v>3.6</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
         <v>0</v>
       </c>
     </row>
